--- a/data/raw/HU Final Settlement prices.xlsx
+++ b/data/raw/HU Final Settlement prices.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 Sales\1. Ferrous\17. Historical data for website\Version on website\Final settlement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateo/GitHub/steel-scrap-predictor/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE1DF9-1134-2243-92A2-95A7EB6505DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HU Final Settlement prices " sheetId="1" r:id="rId1"/>
@@ -19,21 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Contract name</t>
-  </si>
-  <si>
-    <t>Contrat code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Currency/unit</t>
-  </si>
-  <si>
-    <t>LME Steel HRC N. America (Platts)</t>
-  </si>
-  <si>
-    <t>HU</t>
   </si>
   <si>
     <t>USD/st</t>
@@ -42,12 +31,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +45,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,30 +110,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -169,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -244,6 +219,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,153 +463,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>43525</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B2" s="1">
         <v>695.58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>43556</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B3" s="1">
         <v>679.68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>43586</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B4" s="1">
         <v>621.42999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>43617</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B5" s="1">
         <v>542.94000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>43647</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B6" s="1">
         <v>552.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>43678</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B7" s="1">
         <v>596.32000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>43738</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B8" s="1">
         <v>554.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>43769</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B9" s="1">
         <v>495.25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43798</v>
+      </c>
+      <c r="B10" s="1">
+        <v>516.66999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>43828</v>
+      </c>
+      <c r="B11" s="1">
+        <v>565.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>43798</v>
-      </c>
-      <c r="B12" s="3">
-        <v>516.66999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43831</v>
+      </c>
+      <c r="B12" s="1">
+        <v>596.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>43828</v>
-      </c>
-      <c r="B13" s="3">
-        <v>565.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>43831</v>
-      </c>
-      <c r="B14" s="3">
-        <v>596.38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
         <v>43862</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B13" s="1">
         <v>581.78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43891</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B14" s="1">
         <v>573.05999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>43951</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B15" s="1">
         <v>490.43</v>
       </c>
     </row>
